--- a/biology/Botanique/Pickeringia_montana/Pickeringia_montana.xlsx
+++ b/biology/Botanique/Pickeringia_montana/Pickeringia_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pickeringia montana est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Nord. C'est l'unique espèce acceptée du genre Pickeringia (genre monotypique).
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (23 novembre 2018)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (23 novembre 2018) :
 Pickeringia montana var. tomentosa (Abrams) I.M.Johnst.
-Xylothermia montana (Torr. &amp; A.Gray) Greene
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (23 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Xylothermia montana (Torr. &amp; A.Gray) Greene</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pickeringia_montana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pickeringia_montana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Pickeringia montana subsp. montana
 Pickeringia montana subsp. tomentosa (Abrams) Abrams
